--- a/z-Score/data/z-scoreResult/z-score.xlsx
+++ b/z-Score/data/z-scoreResult/z-score.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqb\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mqb\PycharmProjects\数据分析\z-Score\data\z-scoreResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B57CB4-DE97-4EB8-A0BF-5A6203FED842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F36E9B3-8218-49E5-8A39-0123D5490CA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C28FDDB-1949-4E7F-A583-DD266244896D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="81">
   <si>
     <t>序号</t>
   </si>
@@ -234,6 +235,57 @@
   <si>
     <t>胡典_2018215350</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>谯磊_2018215218</t>
+  </si>
+  <si>
+    <t>义晓洁_2019214803</t>
+  </si>
+  <si>
+    <t>吕佳凝_2019214799</t>
+  </si>
+  <si>
+    <t>姚孟奇_2019214802</t>
+  </si>
+  <si>
+    <t>陈诗怡-2019214832</t>
+  </si>
+  <si>
+    <t>孟镕媛_2019214806</t>
+  </si>
+  <si>
+    <t>周蔚博_2019214834</t>
+  </si>
+  <si>
+    <t>吴可馨-2019214813</t>
+  </si>
+  <si>
+    <t>张天翼_2019212490</t>
+  </si>
+  <si>
+    <t>李韵远-2019214824</t>
+  </si>
+  <si>
+    <t>江素娟_2019214822</t>
+  </si>
+  <si>
+    <t>朱俊雅_2019214827</t>
+  </si>
+  <si>
+    <t>郑子路_2019214826</t>
+  </si>
+  <si>
+    <t>陈冰洁_2018211912</t>
+  </si>
+  <si>
+    <t>采蕊涵_2019214815</t>
+  </si>
+  <si>
+    <t>胡典_2018215350</t>
   </si>
 </sst>
 </file>
@@ -610,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD6647A-E687-41E2-8AC4-86C1F70C1508}">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -711,76 +763,76 @@
         <v>26</v>
       </c>
       <c r="C2">
-        <v>-0.29018636105824552</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>0.1206324442063465</v>
+        <v>39</v>
       </c>
       <c r="F2">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H2">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>-0.89815387641586564</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K2">
-        <v>1.010392955325361</v>
+        <v>58</v>
       </c>
       <c r="L2">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M2">
-        <v>0.21823087556118489</v>
+        <v>56</v>
       </c>
       <c r="N2">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>0.86493097326543023</v>
+        <v>79</v>
       </c>
       <c r="P2">
-        <v>-0.1136847092516698</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R2">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S2">
-        <v>-0.2029190017329775</v>
+        <v>51</v>
       </c>
       <c r="T2">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U2">
-        <v>0.74210514151927098</v>
+        <v>80</v>
       </c>
       <c r="V2">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W2">
-        <v>0.56566566216303937</v>
+        <v>69</v>
       </c>
       <c r="X2">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y2">
-        <v>0.64624291443366688</v>
+        <v>56</v>
       </c>
       <c r="Z2">
-        <v>0.80976501667177103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
@@ -791,76 +843,76 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>0.48364393509707582</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>-0.72300139835807498</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0.1206324442063465</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>0.12801717990877409</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>0.4170000140502228</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>1.155447606599985</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L3">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M3">
-        <v>0.91999290677754519</v>
+        <v>64</v>
       </c>
       <c r="N3">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O3">
-        <v>0.57544387200924541</v>
+        <v>75</v>
       </c>
       <c r="P3">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q3">
-        <v>-8.9634374461547345E-2</v>
+        <v>49</v>
       </c>
       <c r="R3">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S3">
-        <v>-0.33190627415238949</v>
+        <v>49</v>
       </c>
       <c r="T3">
-        <v>-0.43212018043055261</v>
+        <v>20</v>
       </c>
       <c r="U3">
-        <v>9.4736826576928362E-2</v>
+        <v>67</v>
       </c>
       <c r="V3">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W3">
-        <v>0.96553276817484313</v>
+        <v>78</v>
       </c>
       <c r="X3">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y3">
-        <v>-0.38830648003931839</v>
+        <v>38</v>
       </c>
       <c r="Z3">
-        <v>-0.56784351791505916</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -871,76 +923,76 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>1.1607454442329821</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>0.88154478458484098</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>-2.1945802270075261E-2</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I4">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J4">
-        <v>1.155447606599985</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L4">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>0.21823087556118489</v>
+        <v>56</v>
       </c>
       <c r="N4">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>0.57544387200924541</v>
+        <v>75</v>
       </c>
       <c r="P4">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q4">
-        <v>2.1729545324011501E-2</v>
+        <v>51</v>
       </c>
       <c r="R4">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S4">
-        <v>0.76448554141261238</v>
+        <v>66</v>
       </c>
       <c r="T4">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U4">
-        <v>4.493926388905585E-2</v>
+        <v>66</v>
       </c>
       <c r="V4">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W4">
-        <v>-2.4999821505941222</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-2.8986720531090611</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>-4.3456681881656647E-2</v>
+        <v>44</v>
       </c>
       <c r="Z4">
-        <v>0.80976501667177103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
@@ -951,76 +1003,76 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>1.450931805291227</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E5">
-        <v>0.1206324442063465</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>-0.47183474880662329</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I5">
-        <v>0.65611890322587518</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>-4.3706565497534662E-2</v>
+        <v>48</v>
       </c>
       <c r="L5">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M5">
-        <v>0.39367138336527502</v>
+        <v>58</v>
       </c>
       <c r="N5">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O5">
-        <v>0.21358499543901449</v>
+        <v>70</v>
       </c>
       <c r="P5">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q5">
-        <v>-0.14531633435432681</v>
+        <v>48</v>
       </c>
       <c r="R5">
-        <v>-0.74846258050792214</v>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>0.82897917762231843</v>
+        <v>67</v>
       </c>
       <c r="T5">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U5">
-        <v>0.14453438926480089</v>
+        <v>68</v>
       </c>
       <c r="V5">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W5">
-        <v>0.65452501905455129</v>
+        <v>71</v>
       </c>
       <c r="X5">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y5">
-        <v>0.87614277987210798</v>
+        <v>60</v>
       </c>
       <c r="Z5">
-        <v>0.80976501667177103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1031,76 +1083,76 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>1.257474231252397</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>-1.115850108908707</v>
+        <v>26</v>
       </c>
       <c r="F6">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G6">
-        <v>0.72786910862417142</v>
+        <v>60</v>
       </c>
       <c r="H6">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>5.8321680286744122E-2</v>
+        <v>39</v>
       </c>
       <c r="J6">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L6">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>-0.57125140955722031</v>
+        <v>47</v>
       </c>
       <c r="N6">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O6">
-        <v>0.50307209669519926</v>
+        <v>74</v>
       </c>
       <c r="P6">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q6">
-        <v>0.41150326457346748</v>
+        <v>58</v>
       </c>
       <c r="R6">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S6">
-        <v>0.37752372415437652</v>
+        <v>60</v>
       </c>
       <c r="T6">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U6">
-        <v>0.29392707732841838</v>
+        <v>71</v>
       </c>
       <c r="V6">
-        <v>-2.517765718952205E-2</v>
+        <v>14</v>
       </c>
       <c r="W6">
-        <v>0.25465791304274771</v>
+        <v>62</v>
       </c>
       <c r="X6">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y6">
-        <v>-0.73315627819698015</v>
+        <v>32</v>
       </c>
       <c r="Z6">
-        <v>-0.56784351791505916</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
@@ -1111,76 +1163,76 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>-1.235561467511062</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>1.166886912226776</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H7">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I7">
-        <v>5.8321680286744122E-2</v>
+        <v>39</v>
       </c>
       <c r="J7">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>-1.7302657988141681</v>
+        <v>32</v>
       </c>
       <c r="L7">
-        <v>-0.80822385912048678</v>
+        <v>32</v>
       </c>
       <c r="M7">
-        <v>0.21823087556118489</v>
+        <v>56</v>
       </c>
       <c r="N7">
-        <v>-1.7144518489137259</v>
+        <v>21</v>
       </c>
       <c r="O7">
-        <v>-0.36538920707335498</v>
+        <v>62</v>
       </c>
       <c r="P7">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>-0.70213593328212109</v>
+        <v>38</v>
       </c>
       <c r="R7">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S7">
-        <v>-0.52538718278150753</v>
+        <v>46</v>
       </c>
       <c r="T7">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U7">
-        <v>-0.1044534241745617</v>
+        <v>63</v>
       </c>
       <c r="V7">
-        <v>-2.517765718952205E-2</v>
+        <v>14</v>
       </c>
       <c r="W7">
-        <v>-0.45621694208934771</v>
+        <v>46</v>
       </c>
       <c r="X7">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y7">
-        <v>-0.44578144639892869</v>
+        <v>37</v>
       </c>
       <c r="Z7">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1191,76 +1243,76 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>0.96728787019415152</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>4.5838705371405539E-2</v>
+        <v>55</v>
       </c>
       <c r="E8">
-        <v>0.21574648675365829</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>0.12801717990877409</v>
+        <v>52</v>
       </c>
       <c r="H8">
-        <v>-1.2299731478668741</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>5.8321680286744122E-2</v>
+        <v>39</v>
       </c>
       <c r="J8">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.1671133386670445</v>
+        <v>50</v>
       </c>
       <c r="L8">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>0.21823087556118489</v>
+        <v>56</v>
       </c>
       <c r="N8">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O8">
-        <v>0.86493097326543023</v>
+        <v>79</v>
       </c>
       <c r="P8">
-        <v>-0.77955229201145049</v>
+        <v>18</v>
       </c>
       <c r="Q8">
-        <v>0.96832286350126173</v>
+        <v>68</v>
       </c>
       <c r="R8">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S8">
-        <v>-0.71886809141062546</v>
+        <v>43</v>
       </c>
       <c r="T8">
-        <v>-0.81727077603169751</v>
+        <v>18</v>
       </c>
       <c r="U8">
-        <v>-0.5526314883654142</v>
+        <v>54</v>
       </c>
       <c r="V8">
-        <v>-0.54131962957472368</v>
+        <v>12</v>
       </c>
       <c r="W8">
-        <v>3.2509520813967893E-2</v>
+        <v>57</v>
       </c>
       <c r="X8">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y8">
-        <v>0.87614277987210798</v>
+        <v>60</v>
       </c>
       <c r="Z8">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
@@ -1271,76 +1323,76 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>0.87055908317473629</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E9">
-        <v>1.0717728696794651</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G9">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I9">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J9">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.79957305116078203</v>
+        <v>56</v>
       </c>
       <c r="L9">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>0.48139163726731998</v>
+        <v>59</v>
       </c>
       <c r="N9">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O9">
-        <v>0.50307209669519926</v>
+        <v>74</v>
       </c>
       <c r="P9">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q9">
-        <v>0.96832286350126173</v>
+        <v>68</v>
       </c>
       <c r="R9">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S9">
-        <v>1.0869537224611421</v>
+        <v>71</v>
       </c>
       <c r="T9">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U9">
-        <v>0.64251001614352599</v>
+        <v>78</v>
       </c>
       <c r="V9">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W9">
-        <v>0.38794694838001559</v>
+        <v>65</v>
       </c>
       <c r="X9">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y9">
-        <v>0.87614277987210798</v>
+        <v>60</v>
       </c>
       <c r="Z9">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
@@ -1351,76 +1403,76 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>0.38691514807766059</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>-0.35493776853021258</v>
+        <v>34</v>
       </c>
       <c r="F10">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H10">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I10">
-        <v>-6.1237764301082097E-2</v>
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.6941630990784925</v>
+        <v>55</v>
       </c>
       <c r="L10">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M10">
-        <v>0.56911189116936511</v>
+        <v>60</v>
       </c>
       <c r="N10">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O10">
-        <v>0.14121322012496829</v>
+        <v>69</v>
       </c>
       <c r="P10">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q10">
-        <v>-2.8180504092077392</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>-3.1089984113406</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1.0224600862514359</v>
+        <v>70</v>
       </c>
       <c r="T10">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U10">
-        <v>9.4736826576928362E-2</v>
+        <v>67</v>
       </c>
       <c r="V10">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W10">
-        <v>0.43237662682577149</v>
+        <v>66</v>
       </c>
       <c r="X10">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y10">
-        <v>0.64624291443366688</v>
+        <v>56</v>
       </c>
       <c r="Z10">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -1431,76 +1483,76 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>1.450931805291227</v>
+        <v>35</v>
       </c>
       <c r="D11">
-        <v>0.72925213090872154</v>
+        <v>63</v>
       </c>
       <c r="E11">
-        <v>0.88154478458484098</v>
+        <v>47</v>
       </c>
       <c r="F11">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H11">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I11">
-        <v>0.65611890322587518</v>
+        <v>44</v>
       </c>
       <c r="J11">
-        <v>1.155447606599985</v>
+        <v>52</v>
       </c>
       <c r="K11">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L11">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>0.56911189116936511</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O11">
-        <v>0.72018742263733782</v>
+        <v>77</v>
       </c>
       <c r="P11">
-        <v>-0.1136847092516698</v>
+        <v>21</v>
       </c>
       <c r="Q11">
-        <v>0.41150326457346748</v>
+        <v>58</v>
       </c>
       <c r="R11">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S11">
-        <v>0.37752372415437652</v>
+        <v>60</v>
       </c>
       <c r="T11">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U11">
-        <v>0.39352220270416338</v>
+        <v>73</v>
       </c>
       <c r="V11">
-        <v>-1.057461601959925</v>
+        <v>10</v>
       </c>
       <c r="W11">
-        <v>0.52123598371728341</v>
+        <v>68</v>
       </c>
       <c r="X11">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y11">
-        <v>0.76119284715288749</v>
+        <v>58</v>
       </c>
       <c r="Z11">
-        <v>1.22304757704782</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -1511,76 +1563,76 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>-0.89385475474240406</v>
+        <v>44</v>
       </c>
       <c r="E12">
-        <v>-1.210964151456019</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>-1.7322835944535471</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>-1.146668168611445</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>0.4170000140502228</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>-0.25452646966211379</v>
+        <v>46</v>
       </c>
       <c r="L12">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>4.2790367757094862E-2</v>
+        <v>54</v>
       </c>
       <c r="N12">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O12">
-        <v>0.21358499543901449</v>
+        <v>70</v>
       </c>
       <c r="P12">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q12">
-        <v>-0.47940809371100329</v>
+        <v>42</v>
       </c>
       <c r="R12">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S12">
-        <v>0.31303008794467052</v>
+        <v>59</v>
       </c>
       <c r="T12">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U12">
-        <v>0.44331976539203588</v>
+        <v>74</v>
       </c>
       <c r="V12">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W12">
-        <v>7.6939199259723839E-2</v>
+        <v>58</v>
       </c>
       <c r="X12">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y12">
-        <v>-1.8251806390295759</v>
+        <v>13</v>
       </c>
       <c r="Z12">
-        <v>-0.98112607829110821</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
@@ -1591,76 +1643,76 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>-0.58037272211649094</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E13">
-        <v>0.21574648675365829</v>
+        <v>40</v>
       </c>
       <c r="F13">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G13">
-        <v>-2.1945802270075261E-2</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I13">
-        <v>-0.53947554265238695</v>
+        <v>34</v>
       </c>
       <c r="J13">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>-0.46534637382669303</v>
+        <v>44</v>
       </c>
       <c r="L13">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>-0.30809064785108531</v>
+        <v>50</v>
       </c>
       <c r="N13">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O13">
-        <v>0.21358499543901449</v>
+        <v>70</v>
       </c>
       <c r="P13">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q13">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R13">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S13">
-        <v>0.69999190520290644</v>
+        <v>65</v>
       </c>
       <c r="T13">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U13">
-        <v>0.74210514151927098</v>
+        <v>80</v>
       </c>
       <c r="V13">
-        <v>-2.517765718952205E-2</v>
+        <v>14</v>
       </c>
       <c r="W13">
-        <v>0.43237662682577149</v>
+        <v>66</v>
       </c>
       <c r="X13">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y13">
-        <v>1.106042645310549</v>
+        <v>64</v>
       </c>
       <c r="Z13">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
@@ -1671,76 +1723,76 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.29018636105824552</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>4.5838705371405539E-2</v>
+        <v>55</v>
       </c>
       <c r="E14">
-        <v>-0.64027989617214809</v>
+        <v>31</v>
       </c>
       <c r="F14">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G14">
-        <v>0.50292463535589738</v>
+        <v>57</v>
       </c>
       <c r="H14">
-        <v>-2.5570494389863949</v>
+        <v>10</v>
       </c>
       <c r="I14">
-        <v>-0.65903498724021314</v>
+        <v>33</v>
       </c>
       <c r="J14">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L14">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>-4.4929886144950172E-2</v>
+        <v>53</v>
       </c>
       <c r="N14">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O14">
-        <v>-1.5233376120980939</v>
+        <v>46</v>
       </c>
       <c r="P14">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q14">
-        <v>-1.2589555322099151</v>
+        <v>28</v>
       </c>
       <c r="R14">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S14">
-        <v>-0.1384253655232715</v>
+        <v>52</v>
       </c>
       <c r="T14">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U14">
-        <v>-1.050607115244139</v>
+        <v>44</v>
       </c>
       <c r="V14">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W14">
-        <v>-1.2559511541129551</v>
+        <v>28</v>
       </c>
       <c r="X14">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y14">
-        <v>-4.3456681881656647E-2</v>
+        <v>44</v>
       </c>
       <c r="Z14">
-        <v>-0.56784351791505916</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -1751,76 +1803,76 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.19345757403883029</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>-0.38129468558941698</v>
+        <v>50</v>
       </c>
       <c r="E15">
-        <v>0.59620265694290553</v>
+        <v>44</v>
       </c>
       <c r="F15">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>-0.62179773098547264</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I15">
-        <v>0.17788112487457031</v>
+        <v>40</v>
       </c>
       <c r="J15">
-        <v>-0.83921984058314725</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>-0.14911651757982419</v>
+        <v>47</v>
       </c>
       <c r="L15">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>0.1305106216591399</v>
+        <v>55</v>
       </c>
       <c r="N15">
-        <v>-1.239502350228167</v>
+        <v>24</v>
       </c>
       <c r="O15">
-        <v>0.21358499543901449</v>
+        <v>70</v>
       </c>
       <c r="P15">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q15">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R15">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S15">
-        <v>0.44201736036408251</v>
+        <v>61</v>
       </c>
       <c r="T15">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U15">
-        <v>-1.249797365995629</v>
+        <v>40</v>
       </c>
       <c r="V15">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W15">
-        <v>0.16579855615123579</v>
+        <v>60</v>
       </c>
       <c r="X15">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y15">
-        <v>-0.5607313791181493</v>
+        <v>35</v>
       </c>
       <c r="Z15">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1831,76 +1883,76 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>0.29018636105824552</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>0.88154478458484098</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G16">
-        <v>-0.47183474880662329</v>
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I16">
-        <v>0.53655945863804899</v>
+        <v>43</v>
       </c>
       <c r="J16">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L16">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>0.30595112946322989</v>
+        <v>57</v>
       </c>
       <c r="N16">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O16">
-        <v>0.72018742263733782</v>
+        <v>77</v>
       </c>
       <c r="P16">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q16">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R16">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S16">
-        <v>0.11954917931555251</v>
+        <v>56</v>
       </c>
       <c r="T16">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U16">
-        <v>-0.45303636298966921</v>
+        <v>56</v>
       </c>
       <c r="V16">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W16">
-        <v>0.65452501905455129</v>
+        <v>71</v>
       </c>
       <c r="X16">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y16">
-        <v>0.76119284715288749</v>
+        <v>58</v>
       </c>
       <c r="Z16">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -1911,76 +1963,76 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-1.3542030182718121</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>0.38754541814006349</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>-0.25982372598290082</v>
+        <v>35</v>
       </c>
       <c r="F17">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G17">
-        <v>-0.32187176662777389</v>
+        <v>46</v>
       </c>
       <c r="H17">
-        <v>-1.2299731478668741</v>
+        <v>20</v>
       </c>
       <c r="I17">
-        <v>-0.89815387641586564</v>
+        <v>31</v>
       </c>
       <c r="J17">
-        <v>-0.83921984058314725</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>-0.88698618215585134</v>
+        <v>40</v>
       </c>
       <c r="L17">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>-0.30809064785108531</v>
+        <v>50</v>
       </c>
       <c r="N17">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O17">
-        <v>-0.6548763083295398</v>
+        <v>58</v>
       </c>
       <c r="P17">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q17">
-        <v>0.41150326457346748</v>
+        <v>58</v>
       </c>
       <c r="R17">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S17">
-        <v>0.11954917931555251</v>
+        <v>56</v>
       </c>
       <c r="T17">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U17">
-        <v>0.79190270420714348</v>
+        <v>81</v>
       </c>
       <c r="V17">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W17">
-        <v>0.47680630527152751</v>
+        <v>67</v>
       </c>
       <c r="X17">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y17">
-        <v>0.81866781351249773</v>
+        <v>59</v>
       </c>
       <c r="Z17">
-        <v>-1.6800104080327088E-2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -1991,76 +2043,76 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>1.064016657213567</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>-1.3209881457032271</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>1.0717728696794651</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G18">
-        <v>0.57790612644532213</v>
+        <v>58</v>
       </c>
       <c r="H18">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I18">
-        <v>-0.30035665347673451</v>
+        <v>36</v>
       </c>
       <c r="J18">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>0.1671133386670445</v>
+        <v>50</v>
       </c>
       <c r="L18">
-        <v>-0.80822385912048678</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>0.21823087556118489</v>
+        <v>56</v>
       </c>
       <c r="N18">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O18">
-        <v>-0.36538920707335498</v>
+        <v>62</v>
       </c>
       <c r="P18">
-        <v>-0.1136847092516698</v>
+        <v>21</v>
       </c>
       <c r="Q18">
-        <v>-0.36804417392544447</v>
+        <v>44</v>
       </c>
       <c r="R18">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S18">
-        <v>-9.4380931038595371E-3</v>
+        <v>54</v>
       </c>
       <c r="T18">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U18">
-        <v>-0.5526314883654142</v>
+        <v>54</v>
       </c>
       <c r="V18">
-        <v>-1.5736035743451271</v>
+        <v>8</v>
       </c>
       <c r="W18">
-        <v>-0.58950597742661559</v>
+        <v>43</v>
       </c>
       <c r="X18">
-        <v>-0.12676408395520661</v>
+        <v>16</v>
       </c>
       <c r="Y18">
-        <v>0.70371788079327713</v>
+        <v>57</v>
       </c>
       <c r="Z18">
-        <v>0.25872160283703888</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2071,76 +2123,76 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-1.934575740388303</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>4.5838705371405539E-2</v>
+        <v>55</v>
       </c>
       <c r="E19">
-        <v>-0.83050798126677172</v>
+        <v>29</v>
       </c>
       <c r="F19">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G19">
-        <v>-2.1214275527739659</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I19">
-        <v>-0.1807972088889083</v>
+        <v>37</v>
       </c>
       <c r="J19">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>-0.88698618215585134</v>
+        <v>40</v>
       </c>
       <c r="L19">
-        <v>-0.80822385912048678</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>0.48139163726731998</v>
+        <v>59</v>
       </c>
       <c r="N19">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O19">
-        <v>0.43070032138115311</v>
+        <v>73</v>
       </c>
       <c r="P19">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q19">
-        <v>-0.42372613381822388</v>
+        <v>43</v>
       </c>
       <c r="R19">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S19">
-        <v>-0.33190627415238949</v>
+        <v>49</v>
       </c>
       <c r="T19">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U19">
-        <v>0.59271245345565349</v>
+        <v>77</v>
       </c>
       <c r="V19">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W19">
-        <v>0.78781405439181917</v>
+        <v>74</v>
       </c>
       <c r="X19">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y19">
-        <v>-1.8251806390295759</v>
+        <v>13</v>
       </c>
       <c r="Z19">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -2151,76 +2203,76 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.38691514807766059</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>-0.89385475474240406</v>
+        <v>44</v>
       </c>
       <c r="E20">
-        <v>-0.25982372598290082</v>
+        <v>35</v>
       </c>
       <c r="F20">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>0.42794314426647267</v>
+        <v>56</v>
       </c>
       <c r="H20">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I20">
-        <v>0.17788112487457031</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.1671133386670445</v>
+        <v>50</v>
       </c>
       <c r="L20">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>4.2790367757094862E-2</v>
+        <v>54</v>
       </c>
       <c r="N20">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O20">
-        <v>-0.72724808364358595</v>
+        <v>57</v>
       </c>
       <c r="P20">
-        <v>-1.001508152931377</v>
+        <v>17</v>
       </c>
       <c r="Q20">
-        <v>-0.86918181296045938</v>
+        <v>35</v>
       </c>
       <c r="R20">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S20">
-        <v>-0.33190627415238949</v>
+        <v>49</v>
       </c>
       <c r="T20">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U20">
-        <v>0.74210514151927098</v>
+        <v>80</v>
       </c>
       <c r="V20">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W20">
-        <v>0.61009534060879533</v>
+        <v>70</v>
       </c>
       <c r="X20">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y20">
-        <v>0.12896821719717419</v>
+        <v>47</v>
       </c>
       <c r="Z20">
-        <v>0.25872160283703888</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
@@ -2231,76 +2283,76 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.19345757403883029</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>4.5838705371405539E-2</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>1.166886912226776</v>
+        <v>50</v>
       </c>
       <c r="F21">
-        <v>-1.7322835944535471</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>-0.62179773098547264</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I21">
-        <v>-0.30035665347673451</v>
+        <v>36</v>
       </c>
       <c r="J21">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.79957305116078203</v>
+        <v>56</v>
       </c>
       <c r="L21">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M21">
-        <v>0.91999290677754519</v>
+        <v>64</v>
       </c>
       <c r="N21">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O21">
-        <v>0.2859567707530607</v>
+        <v>71</v>
       </c>
       <c r="P21">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q21">
-        <v>0.7455950239301441</v>
+        <v>64</v>
       </c>
       <c r="R21">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S21">
-        <v>0.95796645004173042</v>
+        <v>69</v>
       </c>
       <c r="T21">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U21">
-        <v>0.39352220270416338</v>
+        <v>73</v>
       </c>
       <c r="V21">
-        <v>-1.057461601959925</v>
+        <v>10</v>
       </c>
       <c r="W21">
-        <v>0.52123598371728341</v>
+        <v>68</v>
       </c>
       <c r="X21">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y21">
-        <v>0.64624291443366688</v>
+        <v>56</v>
       </c>
       <c r="Z21">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
@@ -2311,76 +2363,76 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.96728787019415152</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>0.64382545271655711</v>
+        <v>62</v>
       </c>
       <c r="E22">
-        <v>1.0717728696794651</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G22">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H22">
-        <v>-0.56643500230711297</v>
+        <v>25</v>
       </c>
       <c r="I22">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J22">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.79957305116078203</v>
+        <v>56</v>
       </c>
       <c r="L22">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>0.56911189116936511</v>
+        <v>60</v>
       </c>
       <c r="N22">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O22">
-        <v>-0.22064565644526271</v>
+        <v>64</v>
       </c>
       <c r="P22">
-        <v>-1.445419874771231</v>
+        <v>15</v>
       </c>
       <c r="Q22">
-        <v>0.24445738489512919</v>
+        <v>55</v>
       </c>
       <c r="R22">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S22">
-        <v>0.18404281552525839</v>
+        <v>57</v>
       </c>
       <c r="T22">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U22">
-        <v>0.59271245345565349</v>
+        <v>77</v>
       </c>
       <c r="V22">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W22">
-        <v>0.61009534060879533</v>
+        <v>70</v>
       </c>
       <c r="X22">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y22">
-        <v>7.1493250837563929E-2</v>
+        <v>46</v>
       </c>
       <c r="Z22">
-        <v>0.80976501667177103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
@@ -2391,76 +2443,76 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.48364393509707582</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E23">
-        <v>1.166886912226776</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G23">
-        <v>-0.1719087844489246</v>
+        <v>48</v>
       </c>
       <c r="H23">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I23">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>1.155447606599985</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L23">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>0.65683214507141008</v>
+        <v>61</v>
       </c>
       <c r="N23">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O23">
-        <v>0.86493097326543023</v>
+        <v>79</v>
       </c>
       <c r="P23">
-        <v>-1.001508152931377</v>
+        <v>17</v>
       </c>
       <c r="Q23">
-        <v>0.30013934478790871</v>
+        <v>56</v>
       </c>
       <c r="R23">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S23">
-        <v>0.37752372415437652</v>
+        <v>60</v>
       </c>
       <c r="T23">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U23">
-        <v>0.39352220270416338</v>
+        <v>73</v>
       </c>
       <c r="V23">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W23">
-        <v>1.054392125066355</v>
+        <v>80</v>
       </c>
       <c r="X23">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y23">
-        <v>1.106042645310549</v>
+        <v>64</v>
       </c>
       <c r="Z23">
-        <v>0.80976501667177103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
@@ -2471,76 +2523,76 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>1.257474231252397</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>0.64382545271655711</v>
+        <v>62</v>
       </c>
       <c r="E24">
-        <v>0.88154478458484098</v>
+        <v>47</v>
       </c>
       <c r="F24">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H24">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I24">
-        <v>-0.30035665347673451</v>
+        <v>36</v>
       </c>
       <c r="J24">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>0.58875314699620285</v>
+        <v>54</v>
       </c>
       <c r="L24">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>0.1305106216591399</v>
+        <v>55</v>
       </c>
       <c r="N24">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O24">
-        <v>0.50307209669519926</v>
+        <v>74</v>
       </c>
       <c r="P24">
-        <v>-0.1136847092516698</v>
+        <v>21</v>
       </c>
       <c r="Q24">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R24">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S24">
-        <v>0.63549826899320039</v>
+        <v>64</v>
       </c>
       <c r="T24">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U24">
-        <v>0.54291489076778088</v>
+        <v>76</v>
       </c>
       <c r="V24">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W24">
-        <v>0.83224373283757525</v>
+        <v>75</v>
       </c>
       <c r="X24">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y24">
-        <v>0.30139311627600512</v>
+        <v>50</v>
       </c>
       <c r="Z24">
-        <v>-0.43008266445637622</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
@@ -2551,76 +2603,76 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-1.064016657213567</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>0.1206324442063465</v>
+        <v>39</v>
       </c>
       <c r="F25">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G25">
-        <v>-0.77176071316432193</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>-0.56643500230711297</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>-0.30035665347673451</v>
+        <v>36</v>
       </c>
       <c r="J25">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>-0.46534637382669303</v>
+        <v>44</v>
       </c>
       <c r="L25">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>-1.009852679067446</v>
+        <v>42</v>
       </c>
       <c r="N25">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O25">
-        <v>-2.1746835899245101</v>
+        <v>37</v>
       </c>
       <c r="P25">
-        <v>-0.77955229201145049</v>
+        <v>18</v>
       </c>
       <c r="Q25">
-        <v>-0.14531633435432681</v>
+        <v>48</v>
       </c>
       <c r="R25">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S25">
-        <v>-7.3931729313565536E-2</v>
+        <v>53</v>
       </c>
       <c r="T25">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U25">
-        <v>-1.498785179434992</v>
+        <v>35</v>
       </c>
       <c r="V25">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W25">
-        <v>-2.4999821505941222</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-2.8986720531090611</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>-0.21588158096048751</v>
+        <v>41</v>
       </c>
       <c r="Z25">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
@@ -2631,76 +2683,76 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-1.257474231252397</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>-0.46672136378158152</v>
+        <v>49</v>
       </c>
       <c r="E26">
-        <v>-0.35493776853021258</v>
+        <v>34</v>
       </c>
       <c r="F26">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G26">
-        <v>0.12801717990877409</v>
+        <v>52</v>
       </c>
       <c r="H26">
-        <v>-0.56643500230711297</v>
+        <v>25</v>
       </c>
       <c r="I26">
-        <v>0.4170000140502228</v>
+        <v>42</v>
       </c>
       <c r="J26">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.79957305116078203</v>
+        <v>56</v>
       </c>
       <c r="L26">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>0.83227265287550012</v>
+        <v>63</v>
       </c>
       <c r="N26">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O26">
-        <v>0.57544387200924541</v>
+        <v>75</v>
       </c>
       <c r="P26">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q26">
-        <v>0.96832286350126173</v>
+        <v>68</v>
       </c>
       <c r="R26">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S26">
-        <v>0.63549826899320039</v>
+        <v>64</v>
       </c>
       <c r="T26">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U26">
-        <v>0.64251001614352599</v>
+        <v>78</v>
       </c>
       <c r="V26">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W26">
-        <v>0.61009534060879533</v>
+        <v>70</v>
       </c>
       <c r="X26">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y26">
-        <v>0.87614277987210798</v>
+        <v>60</v>
       </c>
       <c r="Z26">
-        <v>0.80976501667177103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
@@ -2711,76 +2763,76 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>1.450931805291227</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E27">
-        <v>-0.83050798126677172</v>
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>-1.296631150790295</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I27">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J27">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L27">
-        <v>-0.19457241052900581</v>
+        <v>36</v>
       </c>
       <c r="M27">
-        <v>0.91999290677754519</v>
+        <v>64</v>
       </c>
       <c r="N27">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O27">
-        <v>-0.29301743175930878</v>
+        <v>63</v>
       </c>
       <c r="P27">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q27">
-        <v>0.96832286350126173</v>
+        <v>68</v>
       </c>
       <c r="R27">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S27">
-        <v>0.18404281552525839</v>
+        <v>57</v>
       </c>
       <c r="T27">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U27">
-        <v>0.69230757883139848</v>
+        <v>79</v>
       </c>
       <c r="V27">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W27">
-        <v>0.56566566216303937</v>
+        <v>69</v>
       </c>
       <c r="X27">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y27">
-        <v>-0.6756813118373699</v>
+        <v>33</v>
       </c>
       <c r="Z27">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
@@ -2791,76 +2843,76 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>-1.5476605923106419</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E28">
-        <v>-1.115850108908707</v>
+        <v>26</v>
       </c>
       <c r="F28">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G28">
-        <v>1.102776564071295</v>
+        <v>65</v>
       </c>
       <c r="H28">
-        <v>-1.2299731478668741</v>
+        <v>20</v>
       </c>
       <c r="I28">
-        <v>0.29744056946239661</v>
+        <v>41</v>
       </c>
       <c r="J28">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>-4.3706565497534662E-2</v>
+        <v>48</v>
       </c>
       <c r="L28">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M28">
-        <v>-0.57125140955722031</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O28">
-        <v>0.50307209669519926</v>
+        <v>74</v>
       </c>
       <c r="P28">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q28">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R28">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S28">
-        <v>0.18404281552525839</v>
+        <v>57</v>
       </c>
       <c r="T28">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U28">
-        <v>0.89149782958288848</v>
+        <v>83</v>
       </c>
       <c r="V28">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W28">
-        <v>0.38794694838001559</v>
+        <v>65</v>
       </c>
       <c r="X28">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y28">
-        <v>1.106042645310549</v>
+        <v>64</v>
       </c>
       <c r="Z28">
-        <v>1.22304757704782</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
@@ -2871,76 +2923,76 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>0.29018636105824552</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>-0.38129468558941698</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>1.0717728696794651</v>
+        <v>49</v>
       </c>
       <c r="F29">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>0.72786910862417142</v>
+        <v>60</v>
       </c>
       <c r="H29">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I29">
-        <v>5.8321680286744122E-2</v>
+        <v>39</v>
       </c>
       <c r="J29">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>-0.67616627799127216</v>
+        <v>42</v>
       </c>
       <c r="L29">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>0.56911189116936511</v>
+        <v>60</v>
       </c>
       <c r="N29">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O29">
-        <v>0.72018742263733782</v>
+        <v>77</v>
       </c>
       <c r="P29">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q29">
-        <v>-0.25668025413988571</v>
+        <v>46</v>
       </c>
       <c r="R29">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S29">
-        <v>-0.39639991036209549</v>
+        <v>48</v>
       </c>
       <c r="T29">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U29">
-        <v>0.49311732807990838</v>
+        <v>75</v>
       </c>
       <c r="V29">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W29">
-        <v>-0.50064662053510367</v>
+        <v>45</v>
       </c>
       <c r="X29">
-        <v>-0.47325258009943838</v>
+        <v>14</v>
       </c>
       <c r="Y29">
-        <v>-0.27335654732009779</v>
+        <v>40</v>
       </c>
       <c r="Z29">
-        <v>1.22304757704782</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
@@ -2951,76 +3003,76 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <v>-0.77383029615532117</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E30">
-        <v>-0.35493776853021258</v>
+        <v>34</v>
       </c>
       <c r="F30">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G30">
-        <v>0.87783209080302071</v>
+        <v>62</v>
       </c>
       <c r="H30">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I30">
-        <v>-6.1237764301082097E-2</v>
+        <v>38</v>
       </c>
       <c r="J30">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.37793324283162372</v>
+        <v>52</v>
       </c>
       <c r="L30">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>0.39367138336527502</v>
+        <v>58</v>
       </c>
       <c r="N30">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O30">
-        <v>0.72018742263733782</v>
+        <v>77</v>
       </c>
       <c r="P30">
-        <v>-0.33564057017159671</v>
+        <v>20</v>
       </c>
       <c r="Q30">
-        <v>0.46718522446624688</v>
+        <v>59</v>
       </c>
       <c r="R30">
-        <v>-0.2763554143413865</v>
+        <v>24</v>
       </c>
       <c r="S30">
-        <v>0.76448554141261238</v>
+        <v>66</v>
       </c>
       <c r="T30">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U30">
-        <v>0.74210514151927098</v>
+        <v>80</v>
       </c>
       <c r="V30">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W30">
-        <v>0.69895469750030725</v>
+        <v>72</v>
       </c>
       <c r="X30">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y30">
-        <v>0.53129298171444628</v>
+        <v>54</v>
       </c>
       <c r="Z30">
-        <v>-0.43008266445637622</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -3031,76 +3083,76 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>1.1607454442329821</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>-1.150134789318898</v>
+        <v>41</v>
       </c>
       <c r="E31">
-        <v>-0.164709683435589</v>
+        <v>36</v>
       </c>
       <c r="F31">
-        <v>-1.7322835944535471</v>
+        <v>20</v>
       </c>
       <c r="G31">
-        <v>-9.6927293359499941E-2</v>
+        <v>49</v>
       </c>
       <c r="H31">
-        <v>-0.56643500230711297</v>
+        <v>25</v>
       </c>
       <c r="I31">
-        <v>-6.1237764301082097E-2</v>
+        <v>38</v>
       </c>
       <c r="J31">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>-0.57075632590898262</v>
+        <v>43</v>
       </c>
       <c r="L31">
-        <v>-0.80822385912048678</v>
+        <v>32</v>
       </c>
       <c r="M31">
-        <v>0.30595112946322989</v>
+        <v>57</v>
       </c>
       <c r="N31">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O31">
-        <v>0.21358499543901449</v>
+        <v>70</v>
       </c>
       <c r="P31">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q31">
-        <v>0.46718522446624688</v>
+        <v>59</v>
       </c>
       <c r="R31">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S31">
-        <v>0.63549826899320039</v>
+        <v>64</v>
       </c>
       <c r="T31">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U31">
-        <v>9.4736826576928362E-2</v>
+        <v>67</v>
       </c>
       <c r="V31">
-        <v>-0.54131962957472368</v>
+        <v>12</v>
       </c>
       <c r="W31">
-        <v>-0.36735758519783579</v>
+        <v>48</v>
       </c>
       <c r="X31">
-        <v>-0.81974107624367021</v>
+        <v>12</v>
       </c>
       <c r="Y31">
-        <v>0.81866781351249773</v>
+        <v>59</v>
       </c>
       <c r="Z31">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
@@ -3111,76 +3163,76 @@
         <v>56</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>0.38754541814006349</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>-6.959564088827716E-2</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G32">
-        <v>0.57790612644532213</v>
+        <v>58</v>
       </c>
       <c r="H32">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I32">
-        <v>5.8321680286744122E-2</v>
+        <v>39</v>
       </c>
       <c r="J32">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>-0.35993642174440338</v>
+        <v>45</v>
       </c>
       <c r="L32">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>-1.4484539485776711</v>
+        <v>37</v>
       </c>
       <c r="N32">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O32">
-        <v>-0.14827388113121651</v>
+        <v>65</v>
       </c>
       <c r="P32">
-        <v>-0.77955229201145049</v>
+        <v>18</v>
       </c>
       <c r="Q32">
-        <v>0.85695894371570291</v>
+        <v>66</v>
       </c>
       <c r="R32">
-        <v>-0.74846258050792214</v>
+        <v>20</v>
       </c>
       <c r="S32">
-        <v>0.24853645173496439</v>
+        <v>58</v>
       </c>
       <c r="T32">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U32">
-        <v>0.89149782958288848</v>
+        <v>83</v>
       </c>
       <c r="V32">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W32">
-        <v>0.43237662682577149</v>
+        <v>66</v>
       </c>
       <c r="X32">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y32">
-        <v>0.18644318355678449</v>
+        <v>48</v>
       </c>
       <c r="Z32">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
@@ -3191,76 +3243,76 @@
         <v>57</v>
       </c>
       <c r="C33">
-        <v>0.29018636105824552</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>-0.35493776853021258</v>
+        <v>34</v>
       </c>
       <c r="F33">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G33">
-        <v>-0.69677922207489729</v>
+        <v>41</v>
       </c>
       <c r="H33">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I33">
-        <v>-1.2568322101793441</v>
+        <v>28</v>
       </c>
       <c r="J33">
-        <v>-0.83921984058314725</v>
+        <v>36</v>
       </c>
       <c r="K33">
-        <v>0.1671133386670445</v>
+        <v>50</v>
       </c>
       <c r="L33">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M33">
-        <v>-4.4929886144950172E-2</v>
+        <v>53</v>
       </c>
       <c r="N33">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O33">
-        <v>-0.22064565644526271</v>
+        <v>64</v>
       </c>
       <c r="P33">
-        <v>-0.77955229201145049</v>
+        <v>18</v>
       </c>
       <c r="Q33">
-        <v>0.68991306403736463</v>
+        <v>63</v>
       </c>
       <c r="R33">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S33">
-        <v>-0.39639991036209549</v>
+        <v>48</v>
       </c>
       <c r="T33">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U33">
-        <v>4.493926388905585E-2</v>
+        <v>66</v>
       </c>
       <c r="V33">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W33">
-        <v>0.1213688777054798</v>
+        <v>59</v>
       </c>
       <c r="X33">
-        <v>-0.12676408395520661</v>
+        <v>16</v>
       </c>
       <c r="Y33">
-        <v>-0.44578144639892869</v>
+        <v>37</v>
       </c>
       <c r="Z33">
-        <v>-0.43008266445637622</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
@@ -3271,76 +3323,76 @@
         <v>58</v>
       </c>
       <c r="C34">
-        <v>-0.87055908317473629</v>
+        <v>11</v>
       </c>
       <c r="D34">
-        <v>0.47297209633222809</v>
+        <v>60</v>
       </c>
       <c r="E34">
-        <v>-2.0669905343818251</v>
+        <v>16</v>
       </c>
       <c r="F34">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G34">
-        <v>-0.99670518643259598</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>-1.2299731478668741</v>
+        <v>20</v>
       </c>
       <c r="I34">
-        <v>-1.4959510993549969</v>
+        <v>26</v>
       </c>
       <c r="J34">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K34">
-        <v>-0.46534637382669303</v>
+        <v>44</v>
       </c>
       <c r="L34">
-        <v>-0.80822385912048678</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>-2.0624957258919858</v>
+        <v>30</v>
       </c>
       <c r="N34">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O34">
-        <v>-0.22064565644526271</v>
+        <v>64</v>
       </c>
       <c r="P34">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q34">
-        <v>-0.98054573274601819</v>
+        <v>33</v>
       </c>
       <c r="R34">
-        <v>-1.2205697466744581</v>
+        <v>16</v>
       </c>
       <c r="S34">
-        <v>-2.2022217242338629</v>
+        <v>20</v>
       </c>
       <c r="T34">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U34">
-        <v>-1.8473681182500989</v>
+        <v>28</v>
       </c>
       <c r="V34">
-        <v>-2.517765718952205E-2</v>
+        <v>14</v>
       </c>
       <c r="W34">
-        <v>-1.3892401894502231</v>
+        <v>25</v>
       </c>
       <c r="X34">
-        <v>-0.12676408395520661</v>
+        <v>16</v>
       </c>
       <c r="Y34">
-        <v>-0.6756813118373699</v>
+        <v>33</v>
       </c>
       <c r="Z34">
-        <v>0.39648245629572199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
@@ -3351,76 +3403,76 @@
         <v>59</v>
       </c>
       <c r="C35">
-        <v>-0.29018636105824552</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>-0.38129468558941698</v>
+        <v>50</v>
       </c>
       <c r="E35">
-        <v>-0.35493776853021258</v>
+        <v>34</v>
       </c>
       <c r="F35">
-        <v>1.7606816861659009</v>
+        <v>50</v>
       </c>
       <c r="G35">
-        <v>0.50292463535589738</v>
+        <v>57</v>
       </c>
       <c r="H35">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I35">
-        <v>-0.1807972088889083</v>
+        <v>37</v>
       </c>
       <c r="J35">
-        <v>-0.83921984058314725</v>
+        <v>36</v>
       </c>
       <c r="K35">
-        <v>0.58875314699620285</v>
+        <v>54</v>
       </c>
       <c r="L35">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>0.65683214507141008</v>
+        <v>61</v>
       </c>
       <c r="N35">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O35">
-        <v>0.50307209669519926</v>
+        <v>74</v>
       </c>
       <c r="P35">
-        <v>-0.77955229201145049</v>
+        <v>18</v>
       </c>
       <c r="Q35">
-        <v>0.46718522446624688</v>
+        <v>59</v>
       </c>
       <c r="R35">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S35">
-        <v>-9.4380931038595371E-3</v>
+        <v>54</v>
       </c>
       <c r="T35">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U35">
-        <v>0.94129539227076098</v>
+        <v>84</v>
       </c>
       <c r="V35">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W35">
-        <v>1.054392125066355</v>
+        <v>80</v>
       </c>
       <c r="X35">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y35">
-        <v>0.70371788079327713</v>
+        <v>57</v>
       </c>
       <c r="Z35">
-        <v>-0.56784351791505916</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
@@ -3431,76 +3483,76 @@
         <v>60</v>
       </c>
       <c r="C36">
-        <v>1.257474231252397</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E36">
-        <v>1.0717728696794651</v>
+        <v>49</v>
       </c>
       <c r="F36">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G36">
-        <v>0.87783209080302071</v>
+        <v>62</v>
       </c>
       <c r="H36">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I36">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J36">
-        <v>0.65678074480420168</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>1.221212859489941</v>
+        <v>60</v>
       </c>
       <c r="L36">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>0.65683214507141008</v>
+        <v>61</v>
       </c>
       <c r="N36">
-        <v>0.18534614582851111</v>
+        <v>33</v>
       </c>
       <c r="O36">
-        <v>0.50307209669519926</v>
+        <v>74</v>
       </c>
       <c r="P36">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q36">
-        <v>0.13309346510957029</v>
+        <v>53</v>
       </c>
       <c r="R36">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S36">
-        <v>0.31303008794467052</v>
+        <v>59</v>
       </c>
       <c r="T36">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U36">
-        <v>0.44331976539203588</v>
+        <v>74</v>
       </c>
       <c r="V36">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W36">
-        <v>0.69895469750030725</v>
+        <v>72</v>
       </c>
       <c r="X36">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y36">
-        <v>0.76119284715288749</v>
+        <v>58</v>
       </c>
       <c r="Z36">
-        <v>0.25872160283703888</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
@@ -3511,76 +3563,76 @@
         <v>61</v>
       </c>
       <c r="C37">
-        <v>-0.48364393509707582</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>4.5838705371405539E-2</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>-0.83050798126677172</v>
+        <v>29</v>
       </c>
       <c r="F37">
-        <v>0.59635992595941834</v>
+        <v>40</v>
       </c>
       <c r="G37">
-        <v>-0.47183474880662329</v>
+        <v>44</v>
       </c>
       <c r="H37">
-        <v>0.76064128881240856</v>
+        <v>35</v>
       </c>
       <c r="I37">
-        <v>1.1343566815771799</v>
+        <v>48</v>
       </c>
       <c r="J37">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K37">
-        <v>1.010392955325361</v>
+        <v>58</v>
       </c>
       <c r="L37">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>0.74455239897345515</v>
+        <v>62</v>
       </c>
       <c r="N37">
-        <v>0.6602956445140703</v>
+        <v>36</v>
       </c>
       <c r="O37">
-        <v>0.35832854606710679</v>
+        <v>72</v>
       </c>
       <c r="P37">
-        <v>0.99609459534796474</v>
+        <v>26</v>
       </c>
       <c r="Q37">
-        <v>0.96832286350126173</v>
+        <v>68</v>
       </c>
       <c r="R37">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S37">
-        <v>1.0224600862514359</v>
+        <v>70</v>
       </c>
       <c r="T37">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U37">
-        <v>0.59271245345565349</v>
+        <v>77</v>
       </c>
       <c r="V37">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W37">
-        <v>0.56566566216303937</v>
+        <v>69</v>
       </c>
       <c r="X37">
-        <v>0.5662129083332571</v>
+        <v>20</v>
       </c>
       <c r="Y37">
-        <v>0.87614277987210798</v>
+        <v>60</v>
       </c>
       <c r="Z37">
-        <v>-1.6800104080327088E-2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
@@ -3591,156 +3643,156 @@
         <v>62</v>
       </c>
       <c r="C38">
-        <v>-0.77383029615532117</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>-1.235561467511062</v>
+        <v>40</v>
       </c>
       <c r="E38">
-        <v>0.88154478458484098</v>
+        <v>47</v>
       </c>
       <c r="F38">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G38">
-        <v>0.57790612644532213</v>
+        <v>58</v>
       </c>
       <c r="H38">
-        <v>-1.2299731478668741</v>
+        <v>20</v>
       </c>
       <c r="I38">
-        <v>-0.41991609806456082</v>
+        <v>35</v>
       </c>
       <c r="J38">
-        <v>-0.34055297878736429</v>
+        <v>40</v>
       </c>
       <c r="K38">
-        <v>6.1703386584754938E-2</v>
+        <v>49</v>
       </c>
       <c r="L38">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M38">
-        <v>-0.74669191736131046</v>
+        <v>45</v>
       </c>
       <c r="N38">
-        <v>-1.7144518489137259</v>
+        <v>21</v>
       </c>
       <c r="O38">
-        <v>-0.51013275770144739</v>
+        <v>60</v>
       </c>
       <c r="P38">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q38">
-        <v>-0.98054573274601819</v>
+        <v>33</v>
       </c>
       <c r="R38">
-        <v>0.66785891799168473</v>
+        <v>32</v>
       </c>
       <c r="S38">
-        <v>-0.2029190017329775</v>
+        <v>51</v>
       </c>
       <c r="T38">
-        <v>0.33818101077173729</v>
+        <v>24</v>
       </c>
       <c r="U38">
-        <v>0.39352220270416338</v>
+        <v>73</v>
       </c>
       <c r="V38">
-        <v>0.49096431519567962</v>
+        <v>16</v>
       </c>
       <c r="W38">
-        <v>0.1213688777054798</v>
+        <v>59</v>
       </c>
       <c r="X38">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y38">
-        <v>-1.595280773591135</v>
+        <v>17</v>
       </c>
       <c r="Z38">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>63</v>
       </c>
       <c r="C39">
-        <v>1.1607454442329821</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>0.90010548729305062</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>1.0717728696794651</v>
+        <v>49</v>
       </c>
       <c r="F39">
-        <v>-0.56796183424706448</v>
+        <v>30</v>
       </c>
       <c r="G39">
-        <v>0.12801717990877409</v>
+        <v>52</v>
       </c>
       <c r="H39">
-        <v>9.7103143252647767E-2</v>
+        <v>30</v>
       </c>
       <c r="I39">
-        <v>0.29744056946239661</v>
+        <v>41</v>
       </c>
       <c r="J39">
-        <v>0.15811388300841869</v>
+        <v>44</v>
       </c>
       <c r="K39">
-        <v>-0.25452646966211379</v>
+        <v>46</v>
       </c>
       <c r="L39">
-        <v>0.41907903806247521</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>0.65683214507141008</v>
+        <v>61</v>
       </c>
       <c r="N39">
-        <v>-0.28960335285704808</v>
+        <v>30</v>
       </c>
       <c r="O39">
-        <v>-0.94436340958572451</v>
+        <v>54</v>
       </c>
       <c r="P39">
-        <v>0.33022701258818399</v>
+        <v>23</v>
       </c>
       <c r="Q39">
-        <v>0.96832286350126173</v>
+        <v>68</v>
       </c>
       <c r="R39">
-        <v>0.19575175182514909</v>
+        <v>28</v>
       </c>
       <c r="S39">
-        <v>1.0869537224611421</v>
+        <v>71</v>
       </c>
       <c r="T39">
-        <v>-4.6969584829407621E-2</v>
+        <v>22</v>
       </c>
       <c r="U39">
-        <v>0.39352220270416338</v>
+        <v>73</v>
       </c>
       <c r="V39">
-        <v>-1.5736035743451271</v>
+        <v>8</v>
       </c>
       <c r="W39">
-        <v>0.38794694838001559</v>
+        <v>65</v>
       </c>
       <c r="X39">
-        <v>0.21972441218902519</v>
+        <v>18</v>
       </c>
       <c r="Y39">
-        <v>0.35886808263561543</v>
+        <v>51</v>
       </c>
       <c r="Z39">
-        <v>-0.15456095753901011</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3748,4 +3800,3143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7098720E-E375-4980-B456-17C56931BD85}">
+  <dimension ref="A1:Z39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:Z39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="25" max="26" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>31</v>
+      </c>
+      <c r="J2">
+        <v>44</v>
+      </c>
+      <c r="K2">
+        <v>58</v>
+      </c>
+      <c r="L2">
+        <v>40</v>
+      </c>
+      <c r="M2">
+        <v>56</v>
+      </c>
+      <c r="N2">
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>79</v>
+      </c>
+      <c r="P2">
+        <v>21</v>
+      </c>
+      <c r="Q2">
+        <v>63</v>
+      </c>
+      <c r="R2">
+        <v>32</v>
+      </c>
+      <c r="S2">
+        <v>51</v>
+      </c>
+      <c r="T2">
+        <v>24</v>
+      </c>
+      <c r="U2">
+        <v>80</v>
+      </c>
+      <c r="V2">
+        <v>16</v>
+      </c>
+      <c r="W2">
+        <v>69</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>56</v>
+      </c>
+      <c r="Z2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>39</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>52</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>40</v>
+      </c>
+      <c r="M3">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>33</v>
+      </c>
+      <c r="O3">
+        <v>75</v>
+      </c>
+      <c r="P3">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>32</v>
+      </c>
+      <c r="S3">
+        <v>49</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>67</v>
+      </c>
+      <c r="V3">
+        <v>16</v>
+      </c>
+      <c r="W3">
+        <v>78</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>38</v>
+      </c>
+      <c r="Z3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>40</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="I4">
+        <v>48</v>
+      </c>
+      <c r="J4">
+        <v>52</v>
+      </c>
+      <c r="K4">
+        <v>52</v>
+      </c>
+      <c r="L4">
+        <v>36</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>30</v>
+      </c>
+      <c r="O4">
+        <v>75</v>
+      </c>
+      <c r="P4">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>51</v>
+      </c>
+      <c r="R4">
+        <v>32</v>
+      </c>
+      <c r="S4">
+        <v>66</v>
+      </c>
+      <c r="T4">
+        <v>24</v>
+      </c>
+      <c r="U4">
+        <v>66</v>
+      </c>
+      <c r="V4">
+        <v>16</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>44</v>
+      </c>
+      <c r="Z4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>44</v>
+      </c>
+      <c r="J5">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>58</v>
+      </c>
+      <c r="N5">
+        <v>36</v>
+      </c>
+      <c r="O5">
+        <v>70</v>
+      </c>
+      <c r="P5">
+        <v>23</v>
+      </c>
+      <c r="Q5">
+        <v>48</v>
+      </c>
+      <c r="R5">
+        <v>20</v>
+      </c>
+      <c r="S5">
+        <v>67</v>
+      </c>
+      <c r="T5">
+        <v>24</v>
+      </c>
+      <c r="U5">
+        <v>68</v>
+      </c>
+      <c r="V5">
+        <v>16</v>
+      </c>
+      <c r="W5">
+        <v>71</v>
+      </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
+      <c r="Y5">
+        <v>60</v>
+      </c>
+      <c r="Z5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>39</v>
+      </c>
+      <c r="J6">
+        <v>44</v>
+      </c>
+      <c r="K6">
+        <v>52</v>
+      </c>
+      <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>47</v>
+      </c>
+      <c r="N6">
+        <v>33</v>
+      </c>
+      <c r="O6">
+        <v>74</v>
+      </c>
+      <c r="P6">
+        <v>23</v>
+      </c>
+      <c r="Q6">
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <v>24</v>
+      </c>
+      <c r="S6">
+        <v>60</v>
+      </c>
+      <c r="T6">
+        <v>24</v>
+      </c>
+      <c r="U6">
+        <v>71</v>
+      </c>
+      <c r="V6">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <v>62</v>
+      </c>
+      <c r="X6">
+        <v>18</v>
+      </c>
+      <c r="Y6">
+        <v>32</v>
+      </c>
+      <c r="Z6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
+      <c r="H7">
+        <v>35</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>32</v>
+      </c>
+      <c r="M7">
+        <v>56</v>
+      </c>
+      <c r="N7">
+        <v>21</v>
+      </c>
+      <c r="O7">
+        <v>62</v>
+      </c>
+      <c r="P7">
+        <v>23</v>
+      </c>
+      <c r="Q7">
+        <v>38</v>
+      </c>
+      <c r="R7">
+        <v>24</v>
+      </c>
+      <c r="S7">
+        <v>46</v>
+      </c>
+      <c r="T7">
+        <v>24</v>
+      </c>
+      <c r="U7">
+        <v>63</v>
+      </c>
+      <c r="V7">
+        <v>14</v>
+      </c>
+      <c r="W7">
+        <v>46</v>
+      </c>
+      <c r="X7">
+        <v>18</v>
+      </c>
+      <c r="Y7">
+        <v>37</v>
+      </c>
+      <c r="Z7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>30</v>
+      </c>
+      <c r="G8">
+        <v>52</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>39</v>
+      </c>
+      <c r="J8">
+        <v>40</v>
+      </c>
+      <c r="K8">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>56</v>
+      </c>
+      <c r="N8">
+        <v>36</v>
+      </c>
+      <c r="O8">
+        <v>79</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>68</v>
+      </c>
+      <c r="R8">
+        <v>32</v>
+      </c>
+      <c r="S8">
+        <v>43</v>
+      </c>
+      <c r="T8">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <v>54</v>
+      </c>
+      <c r="V8">
+        <v>12</v>
+      </c>
+      <c r="W8">
+        <v>57</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>60</v>
+      </c>
+      <c r="Z8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>65</v>
+      </c>
+      <c r="E9">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>65</v>
+      </c>
+      <c r="H9">
+        <v>30</v>
+      </c>
+      <c r="I9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>44</v>
+      </c>
+      <c r="K9">
+        <v>56</v>
+      </c>
+      <c r="L9">
+        <v>40</v>
+      </c>
+      <c r="M9">
+        <v>59</v>
+      </c>
+      <c r="N9">
+        <v>36</v>
+      </c>
+      <c r="O9">
+        <v>74</v>
+      </c>
+      <c r="P9">
+        <v>23</v>
+      </c>
+      <c r="Q9">
+        <v>68</v>
+      </c>
+      <c r="R9">
+        <v>28</v>
+      </c>
+      <c r="S9">
+        <v>71</v>
+      </c>
+      <c r="T9">
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>78</v>
+      </c>
+      <c r="V9">
+        <v>16</v>
+      </c>
+      <c r="W9">
+        <v>65</v>
+      </c>
+      <c r="X9">
+        <v>18</v>
+      </c>
+      <c r="Y9">
+        <v>60</v>
+      </c>
+      <c r="Z9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>65</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>44</v>
+      </c>
+      <c r="K10">
+        <v>55</v>
+      </c>
+      <c r="L10">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>33</v>
+      </c>
+      <c r="O10">
+        <v>69</v>
+      </c>
+      <c r="P10">
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>70</v>
+      </c>
+      <c r="T10">
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <v>67</v>
+      </c>
+      <c r="V10">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>66</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <v>56</v>
+      </c>
+      <c r="Z10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+      <c r="E11">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>35</v>
+      </c>
+      <c r="I11">
+        <v>44</v>
+      </c>
+      <c r="J11">
+        <v>52</v>
+      </c>
+      <c r="K11">
+        <v>52</v>
+      </c>
+      <c r="L11">
+        <v>40</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>30</v>
+      </c>
+      <c r="O11">
+        <v>77</v>
+      </c>
+      <c r="P11">
+        <v>21</v>
+      </c>
+      <c r="Q11">
+        <v>58</v>
+      </c>
+      <c r="R11">
+        <v>24</v>
+      </c>
+      <c r="S11">
+        <v>60</v>
+      </c>
+      <c r="T11">
+        <v>24</v>
+      </c>
+      <c r="U11">
+        <v>73</v>
+      </c>
+      <c r="V11">
+        <v>10</v>
+      </c>
+      <c r="W11">
+        <v>68</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>58</v>
+      </c>
+      <c r="Z11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>42</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>46</v>
+      </c>
+      <c r="L12">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>54</v>
+      </c>
+      <c r="N12">
+        <v>36</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>23</v>
+      </c>
+      <c r="Q12">
+        <v>42</v>
+      </c>
+      <c r="R12">
+        <v>28</v>
+      </c>
+      <c r="S12">
+        <v>59</v>
+      </c>
+      <c r="T12">
+        <v>24</v>
+      </c>
+      <c r="U12">
+        <v>74</v>
+      </c>
+      <c r="V12">
+        <v>16</v>
+      </c>
+      <c r="W12">
+        <v>58</v>
+      </c>
+      <c r="X12">
+        <v>18</v>
+      </c>
+      <c r="Y12">
+        <v>13</v>
+      </c>
+      <c r="Z12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>35</v>
+      </c>
+      <c r="I13">
+        <v>34</v>
+      </c>
+      <c r="J13">
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <v>44</v>
+      </c>
+      <c r="L13">
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>50</v>
+      </c>
+      <c r="N13">
+        <v>33</v>
+      </c>
+      <c r="O13">
+        <v>70</v>
+      </c>
+      <c r="P13">
+        <v>23</v>
+      </c>
+      <c r="Q13">
+        <v>63</v>
+      </c>
+      <c r="R13">
+        <v>28</v>
+      </c>
+      <c r="S13">
+        <v>65</v>
+      </c>
+      <c r="T13">
+        <v>24</v>
+      </c>
+      <c r="U13">
+        <v>80</v>
+      </c>
+      <c r="V13">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>66</v>
+      </c>
+      <c r="X13">
+        <v>20</v>
+      </c>
+      <c r="Y13">
+        <v>64</v>
+      </c>
+      <c r="Z13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14">
+        <v>57</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>33</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>52</v>
+      </c>
+      <c r="L14">
+        <v>40</v>
+      </c>
+      <c r="M14">
+        <v>53</v>
+      </c>
+      <c r="N14">
+        <v>33</v>
+      </c>
+      <c r="O14">
+        <v>46</v>
+      </c>
+      <c r="P14">
+        <v>26</v>
+      </c>
+      <c r="Q14">
+        <v>28</v>
+      </c>
+      <c r="R14">
+        <v>32</v>
+      </c>
+      <c r="S14">
+        <v>52</v>
+      </c>
+      <c r="T14">
+        <v>24</v>
+      </c>
+      <c r="U14">
+        <v>44</v>
+      </c>
+      <c r="V14">
+        <v>16</v>
+      </c>
+      <c r="W14">
+        <v>28</v>
+      </c>
+      <c r="X14">
+        <v>18</v>
+      </c>
+      <c r="Y14">
+        <v>44</v>
+      </c>
+      <c r="Z14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>44</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>42</v>
+      </c>
+      <c r="H15">
+        <v>35</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>47</v>
+      </c>
+      <c r="L15">
+        <v>36</v>
+      </c>
+      <c r="M15">
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>24</v>
+      </c>
+      <c r="O15">
+        <v>70</v>
+      </c>
+      <c r="P15">
+        <v>23</v>
+      </c>
+      <c r="Q15">
+        <v>63</v>
+      </c>
+      <c r="R15">
+        <v>28</v>
+      </c>
+      <c r="S15">
+        <v>61</v>
+      </c>
+      <c r="T15">
+        <v>24</v>
+      </c>
+      <c r="U15">
+        <v>40</v>
+      </c>
+      <c r="V15">
+        <v>16</v>
+      </c>
+      <c r="W15">
+        <v>60</v>
+      </c>
+      <c r="X15">
+        <v>20</v>
+      </c>
+      <c r="Y15">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>60</v>
+      </c>
+      <c r="E16">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="G16">
+        <v>44</v>
+      </c>
+      <c r="H16">
+        <v>35</v>
+      </c>
+      <c r="I16">
+        <v>43</v>
+      </c>
+      <c r="J16">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>52</v>
+      </c>
+      <c r="L16">
+        <v>40</v>
+      </c>
+      <c r="M16">
+        <v>57</v>
+      </c>
+      <c r="N16">
+        <v>36</v>
+      </c>
+      <c r="O16">
+        <v>77</v>
+      </c>
+      <c r="P16">
+        <v>26</v>
+      </c>
+      <c r="Q16">
+        <v>63</v>
+      </c>
+      <c r="R16">
+        <v>32</v>
+      </c>
+      <c r="S16">
+        <v>56</v>
+      </c>
+      <c r="T16">
+        <v>24</v>
+      </c>
+      <c r="U16">
+        <v>56</v>
+      </c>
+      <c r="V16">
+        <v>16</v>
+      </c>
+      <c r="W16">
+        <v>71</v>
+      </c>
+      <c r="X16">
+        <v>18</v>
+      </c>
+      <c r="Y16">
+        <v>58</v>
+      </c>
+      <c r="Z16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17">
+        <v>46</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>31</v>
+      </c>
+      <c r="J17">
+        <v>36</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>40</v>
+      </c>
+      <c r="M17">
+        <v>50</v>
+      </c>
+      <c r="N17">
+        <v>36</v>
+      </c>
+      <c r="O17">
+        <v>58</v>
+      </c>
+      <c r="P17">
+        <v>26</v>
+      </c>
+      <c r="Q17">
+        <v>58</v>
+      </c>
+      <c r="R17">
+        <v>32</v>
+      </c>
+      <c r="S17">
+        <v>56</v>
+      </c>
+      <c r="T17">
+        <v>24</v>
+      </c>
+      <c r="U17">
+        <v>81</v>
+      </c>
+      <c r="V17">
+        <v>16</v>
+      </c>
+      <c r="W17">
+        <v>67</v>
+      </c>
+      <c r="X17">
+        <v>18</v>
+      </c>
+      <c r="Y17">
+        <v>59</v>
+      </c>
+      <c r="Z17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="G18">
+        <v>58</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18">
+        <v>36</v>
+      </c>
+      <c r="J18">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>50</v>
+      </c>
+      <c r="L18">
+        <v>32</v>
+      </c>
+      <c r="M18">
+        <v>56</v>
+      </c>
+      <c r="N18">
+        <v>33</v>
+      </c>
+      <c r="O18">
+        <v>62</v>
+      </c>
+      <c r="P18">
+        <v>21</v>
+      </c>
+      <c r="Q18">
+        <v>44</v>
+      </c>
+      <c r="R18">
+        <v>28</v>
+      </c>
+      <c r="S18">
+        <v>54</v>
+      </c>
+      <c r="T18">
+        <v>22</v>
+      </c>
+      <c r="U18">
+        <v>54</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="W18">
+        <v>43</v>
+      </c>
+      <c r="X18">
+        <v>16</v>
+      </c>
+      <c r="Y18">
+        <v>57</v>
+      </c>
+      <c r="Z18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>55</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>30</v>
+      </c>
+      <c r="G19">
+        <v>22</v>
+      </c>
+      <c r="H19">
+        <v>35</v>
+      </c>
+      <c r="I19">
+        <v>37</v>
+      </c>
+      <c r="J19">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>32</v>
+      </c>
+      <c r="M19">
+        <v>59</v>
+      </c>
+      <c r="N19">
+        <v>30</v>
+      </c>
+      <c r="O19">
+        <v>73</v>
+      </c>
+      <c r="P19">
+        <v>26</v>
+      </c>
+      <c r="Q19">
+        <v>43</v>
+      </c>
+      <c r="R19">
+        <v>32</v>
+      </c>
+      <c r="S19">
+        <v>49</v>
+      </c>
+      <c r="T19">
+        <v>24</v>
+      </c>
+      <c r="U19">
+        <v>77</v>
+      </c>
+      <c r="V19">
+        <v>16</v>
+      </c>
+      <c r="W19">
+        <v>74</v>
+      </c>
+      <c r="X19">
+        <v>20</v>
+      </c>
+      <c r="Y19">
+        <v>13</v>
+      </c>
+      <c r="Z19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>56</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+      <c r="I20">
+        <v>40</v>
+      </c>
+      <c r="J20">
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <v>50</v>
+      </c>
+      <c r="L20">
+        <v>36</v>
+      </c>
+      <c r="M20">
+        <v>54</v>
+      </c>
+      <c r="N20">
+        <v>33</v>
+      </c>
+      <c r="O20">
+        <v>57</v>
+      </c>
+      <c r="P20">
+        <v>17</v>
+      </c>
+      <c r="Q20">
+        <v>35</v>
+      </c>
+      <c r="R20">
+        <v>32</v>
+      </c>
+      <c r="S20">
+        <v>49</v>
+      </c>
+      <c r="T20">
+        <v>24</v>
+      </c>
+      <c r="U20">
+        <v>80</v>
+      </c>
+      <c r="V20">
+        <v>16</v>
+      </c>
+      <c r="W20">
+        <v>70</v>
+      </c>
+      <c r="X20">
+        <v>20</v>
+      </c>
+      <c r="Y20">
+        <v>47</v>
+      </c>
+      <c r="Z20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>48</v>
+      </c>
+      <c r="K21">
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>64</v>
+      </c>
+      <c r="N21">
+        <v>36</v>
+      </c>
+      <c r="O21">
+        <v>71</v>
+      </c>
+      <c r="P21">
+        <v>23</v>
+      </c>
+      <c r="Q21">
+        <v>64</v>
+      </c>
+      <c r="R21">
+        <v>24</v>
+      </c>
+      <c r="S21">
+        <v>69</v>
+      </c>
+      <c r="T21">
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <v>73</v>
+      </c>
+      <c r="V21">
+        <v>10</v>
+      </c>
+      <c r="W21">
+        <v>68</v>
+      </c>
+      <c r="X21">
+        <v>18</v>
+      </c>
+      <c r="Y21">
+        <v>56</v>
+      </c>
+      <c r="Z21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>65</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>48</v>
+      </c>
+      <c r="J22">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>36</v>
+      </c>
+      <c r="M22">
+        <v>60</v>
+      </c>
+      <c r="N22">
+        <v>36</v>
+      </c>
+      <c r="O22">
+        <v>64</v>
+      </c>
+      <c r="P22">
+        <v>15</v>
+      </c>
+      <c r="Q22">
+        <v>55</v>
+      </c>
+      <c r="R22">
+        <v>28</v>
+      </c>
+      <c r="S22">
+        <v>57</v>
+      </c>
+      <c r="T22">
+        <v>22</v>
+      </c>
+      <c r="U22">
+        <v>77</v>
+      </c>
+      <c r="V22">
+        <v>16</v>
+      </c>
+      <c r="W22">
+        <v>70</v>
+      </c>
+      <c r="X22">
+        <v>18</v>
+      </c>
+      <c r="Y22">
+        <v>46</v>
+      </c>
+      <c r="Z22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>60</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>35</v>
+      </c>
+      <c r="I23">
+        <v>48</v>
+      </c>
+      <c r="J23">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>52</v>
+      </c>
+      <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="M23">
+        <v>61</v>
+      </c>
+      <c r="N23">
+        <v>36</v>
+      </c>
+      <c r="O23">
+        <v>79</v>
+      </c>
+      <c r="P23">
+        <v>17</v>
+      </c>
+      <c r="Q23">
+        <v>56</v>
+      </c>
+      <c r="R23">
+        <v>32</v>
+      </c>
+      <c r="S23">
+        <v>60</v>
+      </c>
+      <c r="T23">
+        <v>24</v>
+      </c>
+      <c r="U23">
+        <v>73</v>
+      </c>
+      <c r="V23">
+        <v>16</v>
+      </c>
+      <c r="W23">
+        <v>80</v>
+      </c>
+      <c r="X23">
+        <v>20</v>
+      </c>
+      <c r="Y23">
+        <v>64</v>
+      </c>
+      <c r="Z23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>62</v>
+      </c>
+      <c r="E24">
+        <v>47</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <v>65</v>
+      </c>
+      <c r="H24">
+        <v>35</v>
+      </c>
+      <c r="I24">
+        <v>36</v>
+      </c>
+      <c r="J24">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>54</v>
+      </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>55</v>
+      </c>
+      <c r="N24">
+        <v>33</v>
+      </c>
+      <c r="O24">
+        <v>74</v>
+      </c>
+      <c r="P24">
+        <v>21</v>
+      </c>
+      <c r="Q24">
+        <v>63</v>
+      </c>
+      <c r="R24">
+        <v>24</v>
+      </c>
+      <c r="S24">
+        <v>64</v>
+      </c>
+      <c r="T24">
+        <v>24</v>
+      </c>
+      <c r="U24">
+        <v>76</v>
+      </c>
+      <c r="V24">
+        <v>16</v>
+      </c>
+      <c r="W24">
+        <v>75</v>
+      </c>
+      <c r="X24">
+        <v>18</v>
+      </c>
+      <c r="Y24">
+        <v>50</v>
+      </c>
+      <c r="Z24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25">
+        <v>39</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <v>40</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>36</v>
+      </c>
+      <c r="J25">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>44</v>
+      </c>
+      <c r="L25">
+        <v>40</v>
+      </c>
+      <c r="M25">
+        <v>42</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
+      <c r="O25">
+        <v>37</v>
+      </c>
+      <c r="P25">
+        <v>18</v>
+      </c>
+      <c r="Q25">
+        <v>48</v>
+      </c>
+      <c r="R25">
+        <v>32</v>
+      </c>
+      <c r="S25">
+        <v>53</v>
+      </c>
+      <c r="T25">
+        <v>22</v>
+      </c>
+      <c r="U25">
+        <v>35</v>
+      </c>
+      <c r="V25">
+        <v>16</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>41</v>
+      </c>
+      <c r="Z25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>52</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>56</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>63</v>
+      </c>
+      <c r="N26">
+        <v>36</v>
+      </c>
+      <c r="O26">
+        <v>75</v>
+      </c>
+      <c r="P26">
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <v>68</v>
+      </c>
+      <c r="R26">
+        <v>32</v>
+      </c>
+      <c r="S26">
+        <v>64</v>
+      </c>
+      <c r="T26">
+        <v>24</v>
+      </c>
+      <c r="U26">
+        <v>78</v>
+      </c>
+      <c r="V26">
+        <v>16</v>
+      </c>
+      <c r="W26">
+        <v>70</v>
+      </c>
+      <c r="X26">
+        <v>20</v>
+      </c>
+      <c r="Y26">
+        <v>60</v>
+      </c>
+      <c r="Z26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>65</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>30</v>
+      </c>
+      <c r="G27">
+        <v>33</v>
+      </c>
+      <c r="H27">
+        <v>35</v>
+      </c>
+      <c r="I27">
+        <v>48</v>
+      </c>
+      <c r="J27">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>52</v>
+      </c>
+      <c r="L27">
+        <v>36</v>
+      </c>
+      <c r="M27">
+        <v>64</v>
+      </c>
+      <c r="N27">
+        <v>36</v>
+      </c>
+      <c r="O27">
+        <v>63</v>
+      </c>
+      <c r="P27">
+        <v>23</v>
+      </c>
+      <c r="Q27">
+        <v>68</v>
+      </c>
+      <c r="R27">
+        <v>32</v>
+      </c>
+      <c r="S27">
+        <v>57</v>
+      </c>
+      <c r="T27">
+        <v>24</v>
+      </c>
+      <c r="U27">
+        <v>79</v>
+      </c>
+      <c r="V27">
+        <v>16</v>
+      </c>
+      <c r="W27">
+        <v>69</v>
+      </c>
+      <c r="X27">
+        <v>20</v>
+      </c>
+      <c r="Y27">
+        <v>33</v>
+      </c>
+      <c r="Z27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>65</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <v>65</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
+        <v>41</v>
+      </c>
+      <c r="J28">
+        <v>48</v>
+      </c>
+      <c r="K28">
+        <v>48</v>
+      </c>
+      <c r="L28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>47</v>
+      </c>
+      <c r="N28">
+        <v>36</v>
+      </c>
+      <c r="O28">
+        <v>74</v>
+      </c>
+      <c r="P28">
+        <v>26</v>
+      </c>
+      <c r="Q28">
+        <v>63</v>
+      </c>
+      <c r="R28">
+        <v>24</v>
+      </c>
+      <c r="S28">
+        <v>57</v>
+      </c>
+      <c r="T28">
+        <v>24</v>
+      </c>
+      <c r="U28">
+        <v>83</v>
+      </c>
+      <c r="V28">
+        <v>16</v>
+      </c>
+      <c r="W28">
+        <v>65</v>
+      </c>
+      <c r="X28">
+        <v>20</v>
+      </c>
+      <c r="Y28">
+        <v>64</v>
+      </c>
+      <c r="Z28">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>49</v>
+      </c>
+      <c r="F29">
+        <v>30</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>39</v>
+      </c>
+      <c r="J29">
+        <v>44</v>
+      </c>
+      <c r="K29">
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
+      </c>
+      <c r="M29">
+        <v>60</v>
+      </c>
+      <c r="N29">
+        <v>33</v>
+      </c>
+      <c r="O29">
+        <v>77</v>
+      </c>
+      <c r="P29">
+        <v>23</v>
+      </c>
+      <c r="Q29">
+        <v>46</v>
+      </c>
+      <c r="R29">
+        <v>32</v>
+      </c>
+      <c r="S29">
+        <v>48</v>
+      </c>
+      <c r="T29">
+        <v>22</v>
+      </c>
+      <c r="U29">
+        <v>75</v>
+      </c>
+      <c r="V29">
+        <v>16</v>
+      </c>
+      <c r="W29">
+        <v>45</v>
+      </c>
+      <c r="X29">
+        <v>14</v>
+      </c>
+      <c r="Y29">
+        <v>40</v>
+      </c>
+      <c r="Z29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>30</v>
+      </c>
+      <c r="G30">
+        <v>62</v>
+      </c>
+      <c r="H30">
+        <v>30</v>
+      </c>
+      <c r="I30">
+        <v>38</v>
+      </c>
+      <c r="J30">
+        <v>44</v>
+      </c>
+      <c r="K30">
+        <v>52</v>
+      </c>
+      <c r="L30">
+        <v>40</v>
+      </c>
+      <c r="M30">
+        <v>58</v>
+      </c>
+      <c r="N30">
+        <v>36</v>
+      </c>
+      <c r="O30">
+        <v>77</v>
+      </c>
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30">
+        <v>59</v>
+      </c>
+      <c r="R30">
+        <v>24</v>
+      </c>
+      <c r="S30">
+        <v>66</v>
+      </c>
+      <c r="T30">
+        <v>24</v>
+      </c>
+      <c r="U30">
+        <v>80</v>
+      </c>
+      <c r="V30">
+        <v>16</v>
+      </c>
+      <c r="W30">
+        <v>72</v>
+      </c>
+      <c r="X30">
+        <v>18</v>
+      </c>
+      <c r="Y30">
+        <v>54</v>
+      </c>
+      <c r="Z30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>36</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>49</v>
+      </c>
+      <c r="H31">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>38</v>
+      </c>
+      <c r="J31">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>43</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>57</v>
+      </c>
+      <c r="N31">
+        <v>30</v>
+      </c>
+      <c r="O31">
+        <v>70</v>
+      </c>
+      <c r="P31">
+        <v>23</v>
+      </c>
+      <c r="Q31">
+        <v>59</v>
+      </c>
+      <c r="R31">
+        <v>28</v>
+      </c>
+      <c r="S31">
+        <v>64</v>
+      </c>
+      <c r="T31">
+        <v>22</v>
+      </c>
+      <c r="U31">
+        <v>67</v>
+      </c>
+      <c r="V31">
+        <v>12</v>
+      </c>
+      <c r="W31">
+        <v>48</v>
+      </c>
+      <c r="X31">
+        <v>12</v>
+      </c>
+      <c r="Y31">
+        <v>59</v>
+      </c>
+      <c r="Z31">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>58</v>
+      </c>
+      <c r="H32">
+        <v>35</v>
+      </c>
+      <c r="I32">
+        <v>39</v>
+      </c>
+      <c r="J32">
+        <v>44</v>
+      </c>
+      <c r="K32">
+        <v>45</v>
+      </c>
+      <c r="L32">
+        <v>40</v>
+      </c>
+      <c r="M32">
+        <v>37</v>
+      </c>
+      <c r="N32">
+        <v>33</v>
+      </c>
+      <c r="O32">
+        <v>65</v>
+      </c>
+      <c r="P32">
+        <v>18</v>
+      </c>
+      <c r="Q32">
+        <v>66</v>
+      </c>
+      <c r="R32">
+        <v>20</v>
+      </c>
+      <c r="S32">
+        <v>58</v>
+      </c>
+      <c r="T32">
+        <v>24</v>
+      </c>
+      <c r="U32">
+        <v>83</v>
+      </c>
+      <c r="V32">
+        <v>16</v>
+      </c>
+      <c r="W32">
+        <v>66</v>
+      </c>
+      <c r="X32">
+        <v>20</v>
+      </c>
+      <c r="Y32">
+        <v>48</v>
+      </c>
+      <c r="Z32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>60</v>
+      </c>
+      <c r="E33">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>40</v>
+      </c>
+      <c r="G33">
+        <v>41</v>
+      </c>
+      <c r="H33">
+        <v>30</v>
+      </c>
+      <c r="I33">
+        <v>28</v>
+      </c>
+      <c r="J33">
+        <v>36</v>
+      </c>
+      <c r="K33">
+        <v>50</v>
+      </c>
+      <c r="L33">
+        <v>40</v>
+      </c>
+      <c r="M33">
+        <v>53</v>
+      </c>
+      <c r="N33">
+        <v>30</v>
+      </c>
+      <c r="O33">
+        <v>64</v>
+      </c>
+      <c r="P33">
+        <v>18</v>
+      </c>
+      <c r="Q33">
+        <v>63</v>
+      </c>
+      <c r="R33">
+        <v>32</v>
+      </c>
+      <c r="S33">
+        <v>48</v>
+      </c>
+      <c r="T33">
+        <v>24</v>
+      </c>
+      <c r="U33">
+        <v>66</v>
+      </c>
+      <c r="V33">
+        <v>16</v>
+      </c>
+      <c r="W33">
+        <v>59</v>
+      </c>
+      <c r="X33">
+        <v>16</v>
+      </c>
+      <c r="Y33">
+        <v>37</v>
+      </c>
+      <c r="Z33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>37</v>
+      </c>
+      <c r="H34">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>26</v>
+      </c>
+      <c r="J34">
+        <v>40</v>
+      </c>
+      <c r="K34">
+        <v>44</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>30</v>
+      </c>
+      <c r="O34">
+        <v>64</v>
+      </c>
+      <c r="P34">
+        <v>23</v>
+      </c>
+      <c r="Q34">
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <v>16</v>
+      </c>
+      <c r="S34">
+        <v>20</v>
+      </c>
+      <c r="T34">
+        <v>22</v>
+      </c>
+      <c r="U34">
+        <v>28</v>
+      </c>
+      <c r="V34">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>25</v>
+      </c>
+      <c r="X34">
+        <v>16</v>
+      </c>
+      <c r="Y34">
+        <v>33</v>
+      </c>
+      <c r="Z34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>50</v>
+      </c>
+      <c r="G35">
+        <v>57</v>
+      </c>
+      <c r="H35">
+        <v>35</v>
+      </c>
+      <c r="I35">
+        <v>37</v>
+      </c>
+      <c r="J35">
+        <v>36</v>
+      </c>
+      <c r="K35">
+        <v>54</v>
+      </c>
+      <c r="L35">
+        <v>40</v>
+      </c>
+      <c r="M35">
+        <v>61</v>
+      </c>
+      <c r="N35">
+        <v>36</v>
+      </c>
+      <c r="O35">
+        <v>74</v>
+      </c>
+      <c r="P35">
+        <v>18</v>
+      </c>
+      <c r="Q35">
+        <v>59</v>
+      </c>
+      <c r="R35">
+        <v>32</v>
+      </c>
+      <c r="S35">
+        <v>54</v>
+      </c>
+      <c r="T35">
+        <v>24</v>
+      </c>
+      <c r="U35">
+        <v>84</v>
+      </c>
+      <c r="V35">
+        <v>16</v>
+      </c>
+      <c r="W35">
+        <v>80</v>
+      </c>
+      <c r="X35">
+        <v>20</v>
+      </c>
+      <c r="Y35">
+        <v>57</v>
+      </c>
+      <c r="Z35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>65</v>
+      </c>
+      <c r="E36">
+        <v>49</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>62</v>
+      </c>
+      <c r="H36">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>48</v>
+      </c>
+      <c r="J36">
+        <v>48</v>
+      </c>
+      <c r="K36">
+        <v>60</v>
+      </c>
+      <c r="L36">
+        <v>40</v>
+      </c>
+      <c r="M36">
+        <v>61</v>
+      </c>
+      <c r="N36">
+        <v>33</v>
+      </c>
+      <c r="O36">
+        <v>74</v>
+      </c>
+      <c r="P36">
+        <v>26</v>
+      </c>
+      <c r="Q36">
+        <v>53</v>
+      </c>
+      <c r="R36">
+        <v>32</v>
+      </c>
+      <c r="S36">
+        <v>59</v>
+      </c>
+      <c r="T36">
+        <v>24</v>
+      </c>
+      <c r="U36">
+        <v>74</v>
+      </c>
+      <c r="V36">
+        <v>16</v>
+      </c>
+      <c r="W36">
+        <v>72</v>
+      </c>
+      <c r="X36">
+        <v>20</v>
+      </c>
+      <c r="Y36">
+        <v>58</v>
+      </c>
+      <c r="Z36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>44</v>
+      </c>
+      <c r="H37">
+        <v>35</v>
+      </c>
+      <c r="I37">
+        <v>48</v>
+      </c>
+      <c r="J37">
+        <v>40</v>
+      </c>
+      <c r="K37">
+        <v>58</v>
+      </c>
+      <c r="L37">
+        <v>40</v>
+      </c>
+      <c r="M37">
+        <v>62</v>
+      </c>
+      <c r="N37">
+        <v>36</v>
+      </c>
+      <c r="O37">
+        <v>72</v>
+      </c>
+      <c r="P37">
+        <v>26</v>
+      </c>
+      <c r="Q37">
+        <v>68</v>
+      </c>
+      <c r="R37">
+        <v>32</v>
+      </c>
+      <c r="S37">
+        <v>70</v>
+      </c>
+      <c r="T37">
+        <v>24</v>
+      </c>
+      <c r="U37">
+        <v>77</v>
+      </c>
+      <c r="V37">
+        <v>16</v>
+      </c>
+      <c r="W37">
+        <v>69</v>
+      </c>
+      <c r="X37">
+        <v>20</v>
+      </c>
+      <c r="Y37">
+        <v>60</v>
+      </c>
+      <c r="Z37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>47</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>58</v>
+      </c>
+      <c r="H38">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>35</v>
+      </c>
+      <c r="J38">
+        <v>40</v>
+      </c>
+      <c r="K38">
+        <v>49</v>
+      </c>
+      <c r="L38">
+        <v>40</v>
+      </c>
+      <c r="M38">
+        <v>45</v>
+      </c>
+      <c r="N38">
+        <v>21</v>
+      </c>
+      <c r="O38">
+        <v>60</v>
+      </c>
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="Q38">
+        <v>33</v>
+      </c>
+      <c r="R38">
+        <v>32</v>
+      </c>
+      <c r="S38">
+        <v>51</v>
+      </c>
+      <c r="T38">
+        <v>24</v>
+      </c>
+      <c r="U38">
+        <v>73</v>
+      </c>
+      <c r="V38">
+        <v>16</v>
+      </c>
+      <c r="W38">
+        <v>59</v>
+      </c>
+      <c r="X38">
+        <v>18</v>
+      </c>
+      <c r="Y38">
+        <v>17</v>
+      </c>
+      <c r="Z38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>65</v>
+      </c>
+      <c r="E39">
+        <v>49</v>
+      </c>
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>30</v>
+      </c>
+      <c r="I39">
+        <v>41</v>
+      </c>
+      <c r="J39">
+        <v>44</v>
+      </c>
+      <c r="K39">
+        <v>46</v>
+      </c>
+      <c r="L39">
+        <v>40</v>
+      </c>
+      <c r="M39">
+        <v>61</v>
+      </c>
+      <c r="N39">
+        <v>30</v>
+      </c>
+      <c r="O39">
+        <v>54</v>
+      </c>
+      <c r="P39">
+        <v>23</v>
+      </c>
+      <c r="Q39">
+        <v>68</v>
+      </c>
+      <c r="R39">
+        <v>28</v>
+      </c>
+      <c r="S39">
+        <v>71</v>
+      </c>
+      <c r="T39">
+        <v>22</v>
+      </c>
+      <c r="U39">
+        <v>73</v>
+      </c>
+      <c r="V39">
+        <v>8</v>
+      </c>
+      <c r="W39">
+        <v>65</v>
+      </c>
+      <c r="X39">
+        <v>18</v>
+      </c>
+      <c r="Y39">
+        <v>51</v>
+      </c>
+      <c r="Z39">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>